--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -20,12 +20,96 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t xml:space="preserve">ARTZAIN-BOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOM</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+  <si>
+    <t xml:space="preserve">ARTZAIN-BOT – LISTA DE MATERIALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Familia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coste ud.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caja IP55 11x15cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bastidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor y rueda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electronica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornillo y tuerca M5 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornillo y tuerca niloc M5 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornillo y tuerca M3 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornillo y tuerca M3 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornillo M3 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornillo y tuerca niloc M3 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tornilleria con coste muy bajo, aproximado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piezas impresas en 3D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio aproximado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bateria 18650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puente H L298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino Nano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor Ultrasonidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable OTG 20cm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cableado y conectores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interruptor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Smartphone reusado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reusado, sin coste para el proyecto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
   </si>
 </sst>
 </file>
@@ -40,6 +124,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -61,6 +146,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,13 +191,29 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -131,26 +233,364 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:D2"/>
+  <dimension ref="B2:G23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.65"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.17"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="3" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="36.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="C2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="4" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <f aca="false">E5*D5</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <f aca="false">E6*D6</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <f aca="false">E14*D14</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <f aca="false">E15*D15</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <f aca="false">E16*D16</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <f aca="false">E17*D17</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <f aca="false">E18*D18</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <f aca="false">E20*D20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4" t="n">
+        <f aca="false">SUM(F5:F21)</f>
+        <v>71</v>
+      </c>
+      <c r="G23" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
